--- a/Documentation/Weekly Team Plan/Weekly team plan 3.xlsx
+++ b/Documentation/Weekly Team Plan/Weekly team plan 3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Weekly team plan</t>
   </si>
@@ -135,6 +135,9 @@
       </rPr>
       <t>(at least 4)</t>
     </r>
+  </si>
+  <si>
+    <t>Matthew, Younes, Amir (Everyone)</t>
   </si>
   <si>
     <r>
@@ -977,7 +980,7 @@
     <col customWidth="1" min="1" max="1" width="0.43"/>
     <col customWidth="1" min="2" max="2" width="41.71"/>
     <col customWidth="1" min="3" max="3" width="11.86"/>
-    <col customWidth="1" min="4" max="4" width="25.71"/>
+    <col customWidth="1" min="4" max="4" width="30.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1251,23 +1254,23 @@
         <v>4.0</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="46">
         <v>4.0</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="46">
         <v>4.0</v>
@@ -1278,7 +1281,7 @@
     </row>
     <row r="31">
       <c r="B31" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="49">
         <v>4.0</v>
